--- a/src/main/resources/【KOL】非抖音、快手询价单订单导出模板.xlsx
+++ b/src/main/resources/【KOL】非抖音、快手询价单订单导出模板.xlsx
@@ -545,8 +545,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -602,14 +602,134 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,121 +745,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,12 +758,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -786,13 +786,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,175 +840,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1081,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1107,24 +1116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1143,8 +1134,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,7 +1189,7 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,141 +1198,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,9 +1349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1378,9 +1375,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,19 +1387,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1414,17 +1402,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,7 +1435,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1809,55 +1794,55 @@
   </cols>
   <sheetData>
     <row r="2" ht="16.5" spans="2:11">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="45"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" ht="76.5" customHeight="1" spans="2:11">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="2:11">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="46"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="6" ht="16.5" spans="2:4">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1868,7 +1853,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1877,125 +1862,125 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" ht="16.5" spans="2:4">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" ht="16.5" spans="2:4">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="37"/>
     </row>
     <row r="11" ht="16.5" spans="2:4">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:4">
-      <c r="B12" s="41"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" ht="16.5" spans="2:4">
-      <c r="B13" s="41"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" ht="16.5" spans="2:4">
-      <c r="B14" s="41"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" ht="16.5" spans="2:4">
-      <c r="B15" s="41"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" ht="16.5" spans="2:4">
-      <c r="B16" s="41"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" ht="16.5" spans="2:4">
-      <c r="B17" s="41"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" ht="16.5" spans="2:4">
-      <c r="B18" s="41"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" ht="16.5" spans="2:4">
-      <c r="B19" s="41"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" ht="16.5" spans="2:4">
-      <c r="B20" s="41"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="36"/>
     </row>
     <row r="21" ht="16.5" spans="2:4">
-      <c r="B21" s="41"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" ht="16.5" spans="2:4">
-      <c r="B22" s="41"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:4">
-      <c r="B23" s="41"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" ht="16.5" spans="2:4">
-      <c r="B24" s="42"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" ht="16.5" spans="2:4">
       <c r="B25" s="1" t="s">
@@ -2009,7 +1994,7 @@
       </c>
     </row>
     <row r="26" ht="16.5" spans="2:4">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2060,46 +2045,46 @@
       </c>
     </row>
     <row r="31" ht="16.5" spans="2:4">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="2:4">
-      <c r="B32" s="41"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="41"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" ht="16.5" spans="2:4">
-      <c r="B33" s="41"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" ht="16.5" spans="2:4">
-      <c r="B34" s="41"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" ht="16.5" spans="2:4">
-      <c r="B35" s="41"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" ht="16.5" spans="2:4">
-      <c r="B36" s="42"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2108,55 +2093,55 @@
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:4">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:4">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="2:4">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="2:4">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="39" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:4">
-      <c r="B41" s="43"/>
-      <c r="C41" s="43" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="39"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -2183,217 +2168,217 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:X25"/>
+  <dimension ref="A2:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="22.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.8833333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.44166666666667" style="7" customWidth="1"/>
-    <col min="3" max="4" width="19.1083333333333" style="7" customWidth="1"/>
-    <col min="5" max="6" width="23.8833333333333" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.2166666666667" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.45" style="7" customWidth="1"/>
-    <col min="9" max="9" width="13.95" style="7" customWidth="1"/>
-    <col min="10" max="13" width="8.66666666666667" style="7" customWidth="1"/>
-    <col min="14" max="15" width="10.4416666666667" style="7" customWidth="1"/>
-    <col min="16" max="16" width="13.825" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="13.1083333333333" style="7" customWidth="1"/>
-    <col min="19" max="19" width="12.775" style="7" customWidth="1"/>
-    <col min="20" max="20" width="10" style="7" customWidth="1"/>
-    <col min="21" max="21" width="17.1083333333333" style="7" customWidth="1"/>
-    <col min="22" max="23" width="14.2166666666667" style="7" customWidth="1"/>
-    <col min="24" max="24" width="40.4416666666667" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="9.10833333333333" style="7"/>
+    <col min="1" max="1" width="22.8833333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.44166666666667" style="6" customWidth="1"/>
+    <col min="3" max="4" width="19.1083333333333" style="6" customWidth="1"/>
+    <col min="5" max="6" width="23.8833333333333" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.2166666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.45" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.95" style="6" customWidth="1"/>
+    <col min="10" max="13" width="8.66666666666667" style="6" customWidth="1"/>
+    <col min="14" max="15" width="10.4416666666667" style="6" customWidth="1"/>
+    <col min="16" max="16" width="13.825" style="6" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="13.1083333333333" style="6" customWidth="1"/>
+    <col min="19" max="19" width="12.775" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10" style="6" customWidth="1"/>
+    <col min="21" max="21" width="17.1083333333333" style="6" customWidth="1"/>
+    <col min="22" max="23" width="14.2166666666667" style="6" customWidth="1"/>
+    <col min="24" max="24" width="40.4416666666667" style="6" customWidth="1"/>
+    <col min="25" max="16384" width="9.10833333333333" style="6"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:24">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" customHeight="1" spans="1:24">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="23" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" ht="30.45" customHeight="1" spans="1:24">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="V11" s="13" t="s">
+      <c r="V11" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="13" t="s">
+      <c r="X11" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2428,222 +2413,92 @@
       <c r="J12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="19" t="s">
+      <c r="S12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="U12" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="V12" s="27" t="s">
+      <c r="V12" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="W12" s="28" t="s">
+      <c r="W12" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="X12" s="29" t="s">
+      <c r="X12" s="25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:24">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="27"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="V13" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="W13" s="27"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:24">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:24">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="1"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:24">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:24">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" s="6" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="V18" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="W18" s="32"/>
-      <c r="X18" s="33"/>
-    </row>
-    <row r="22" customHeight="1" spans="5:20">
-      <c r="E22" s="7" t="s">
+      <c r="X13" s="28"/>
+    </row>
+    <row r="17" customHeight="1" spans="5:20">
+      <c r="E17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T17" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="5:20">
-      <c r="E25" s="7" t="s">
+    <row r="20" customHeight="1" spans="5:20">
+      <c r="E20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T20" s="6" t="s">
         <v>121</v>
       </c>
     </row>

--- a/src/main/resources/【KOL】非抖音、快手询价单订单导出模板.xlsx
+++ b/src/main/resources/【KOL】非抖音、快手询价单订单导出模板.xlsx
@@ -392,7 +392,7 @@
     <t>发布总金额</t>
   </si>
   <si>
-    <t>{total})</t>
+    <t>{total}</t>
   </si>
   <si>
     <t>甲方：（蒙牛开票抬头）</t>
@@ -623,7 +623,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,16 +659,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,26 +698,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -690,12 +719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -720,21 +743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -743,18 +751,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,19 +798,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,19 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,133 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,6 +1117,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1148,36 +1178,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1186,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,139 +1198,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2171,7 +2171,7 @@
   <dimension ref="A2:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="22.2" customHeight="1"/>
